--- a/PCB Cyclone I/BOM PPU_LITE.xlsx
+++ b/PCB Cyclone I/BOM PPU_LITE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>U3</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>SN74LVC8T245PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100kΩ±5%   </t>
+  </si>
+  <si>
+    <t>RC0805JR-07100KL</t>
   </si>
 </sst>
 </file>
@@ -4522,10 +4528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:U48"/>
+  <dimension ref="A4:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5200,19 +5206,19 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="5"/>
@@ -5230,10 +5236,10 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>94</v>
@@ -5242,7 +5248,7 @@
         <v>93</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="5"/>
@@ -5260,10 +5266,10 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>94</v>
@@ -5272,7 +5278,7 @@
         <v>93</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="5"/>
@@ -5290,19 +5296,19 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="5"/>
@@ -5323,16 +5329,16 @@
         <v>3</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="5"/>
@@ -5353,16 +5359,16 @@
         <v>3</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="5"/>
@@ -5377,23 +5383,22 @@
       <c r="S31" s="5"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="5"/>
@@ -5407,76 +5412,77 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
     </row>
-    <row r="33" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>57</v>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+      <c r="G33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C34" s="7"/>
-      <c r="D34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>89</v>
+    <row r="34" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
+      <c r="G34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="25"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="5" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>46</v>
@@ -5485,87 +5491,96 @@
         <v>85</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="36" t="s">
-        <v>55</v>
+      <c r="C36" s="25"/>
+      <c r="D36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="U36" s="2"/>
-    </row>
-    <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="C37" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
+      <c r="I37" s="15"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="C38" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="6"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -5621,9 +5636,11 @@
       <c r="U40" s="2"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="23"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -5641,8 +5658,8 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="24"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="23"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -5675,88 +5692,87 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
+      <c r="U43" s="2"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="4"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
       <c r="T47" s="4"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
-      <c r="D48" s="7"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -5773,6 +5789,26 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C49" s="4"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
